--- a/numPartitionBQM.xlsx
+++ b/numPartitionBQM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>Runtime</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -464,14 +474,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 1, 2: 1, 3: 0, 4: 1, 5: 0, 6: 1, 7: 0}</t>
+          <t>{0: 1, 1: 1, 2: 1, 3: 0, 4: 0, 5: 1, 6: 1, 7: 0}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63759</v>
+        <v>79059</v>
       </c>
       <c r="E2" t="n">
-        <v>2993245</v>
+        <v>2992793</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-6889</v>
       </c>
     </row>
     <row r="3">
@@ -483,14 +499,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 0, 2: 0, 3: 1, 4: 1, 5: 1, 6: 0, 7: 1, 8: 1, 9: 1, 10: 0, 11: 0, 12: 0}</t>
+          <t>{0: 0, 1: 0, 2: 0, 3: 1, 4: 0, 5: 0, 6: 0, 7: 1, 8: 1, 9: 1, 10: 1, 11: 1, 12: 0}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>83517</v>
+        <v>83489</v>
       </c>
       <c r="E3" t="n">
-        <v>2990456</v>
+        <v>2999986</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-22500</v>
       </c>
     </row>
     <row r="4">
@@ -502,14 +524,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{0: 1, 1: 0, 2: 1, 3: 1, 4: 0, 5: 0, 6: 1, 7: 0, 8: 0, 9: 0, 10: 0, 11: 1, 12: 1, 13: 0, 14: 1, 15: 1, 16: 0, 17: 0}</t>
+          <t>{0: 0, 1: 1, 2: 0, 3: 0, 4: 0, 5: 0, 6: 0, 7: 0, 8: 1, 9: 1, 10: 1, 11: 1, 12: 0, 13: 1, 14: 1, 15: 0, 16: 0, 17: 0}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69404</v>
+        <v>69476</v>
       </c>
       <c r="E4" t="n">
-        <v>2992214</v>
+        <v>2991308</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-40000</v>
       </c>
     </row>
     <row r="5">
@@ -521,14 +549,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 0, 2: 0, 3: 0, 4: 0, 5: 0, 6: 0, 7: 0, 8: 0, 9: 1, 10: 1, 11: 1, 12: 0, 13: 1, 14: 0, 15: 1, 16: 0, 17: 1, 18: 0}</t>
+          <t>{0: 1, 1: 0, 2: 1, 3: 1, 4: 1, 5: 0, 6: 0, 7: 1, 8: 0, 9: 0, 10: 1, 11: 1, 12: 0, 13: 0, 14: 0, 15: 1, 16: 0, 17: 1, 18: 0}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69837</v>
+        <v>69809</v>
       </c>
       <c r="E5" t="n">
-        <v>2997700</v>
+        <v>3000586</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-40000</v>
       </c>
     </row>
     <row r="6">
@@ -540,14 +574,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{0: 1, 1: 0, 2: 1, 3: 1, 4: 1, 5: 1, 6: 1, 7: 1, 8: 0, 9: 0, 10: 0, 11: 0, 12: 1, 13: 1, 14: 0, 15: 0, 16: 0, 17: 1, 18: 1, 19: 1, 20: 1, 21: 0}</t>
+          <t>{0: 0, 1: 0, 2: 0, 3: 1, 4: 0, 5: 0, 6: 1, 7: 0, 8: 1, 9: 0, 10: 1, 11: 1, 12: 0, 13: 0, 14: 1, 15: 1, 16: 0, 17: 0, 18: 1, 19: 1, 20: 1, 21: 0}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>89437</v>
+        <v>35853</v>
       </c>
       <c r="E6" t="n">
-        <v>2995473</v>
+        <v>2951986</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-62500</v>
       </c>
     </row>
     <row r="7">
@@ -559,14 +599,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 1, 2: 0, 3: 1, 4: 1, 5: 1, 6: 1, 7: 0, 8: 0, 9: 0, 10: 0}</t>
+          <t>{0: 0, 1: 1, 2: 0, 3: 0, 4: 0, 5: 0, 6: 1, 7: 0, 8: 1, 9: 1, 10: 0}</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65728</v>
+        <v>98575</v>
       </c>
       <c r="E7" t="n">
-        <v>3001836</v>
+        <v>3000768</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-10000</v>
       </c>
     </row>
     <row r="8">
@@ -582,10 +628,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>93380</v>
+        <v>46614</v>
       </c>
       <c r="E8" t="n">
-        <v>2993594</v>
+        <v>2997415</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1225</v>
       </c>
     </row>
     <row r="9">
@@ -597,14 +649,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{0: 1, 1: 1, 2: 1, 3: 1, 4: 1, 5: 0, 6: 0, 7: 0, 8: 0}</t>
+          <t>{0: 0, 1: 0, 2: 0, 3: 0, 4: 1, 5: 1, 6: 1, 7: 1, 8: 0}</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80514</v>
+        <v>96385</v>
       </c>
       <c r="E9" t="n">
-        <v>2992106</v>
+        <v>2984022</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-4624</v>
       </c>
     </row>
     <row r="10">
@@ -616,14 +674,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{0: 1, 1: 1, 2: 0, 3: 1, 4: 0, 5: 1, 6: 1, 7: 0, 8: 1, 9: 1, 10: 0, 11: 0, 12: 1, 13: 0, 14: 1, 15: 1, 16: 0, 17: 0}</t>
+          <t>{0: 1, 1: 0, 2: 1, 3: 0, 4: 1, 5: 1, 6: 0, 7: 1, 8: 1, 9: 0, 10: 1, 11: 1, 12: 1, 13: 1, 14: 0, 15: 1, 16: 0, 17: 0}</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52020</v>
+        <v>86811</v>
       </c>
       <c r="E10" t="n">
-        <v>2989616</v>
+        <v>2986036</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-21316</v>
       </c>
     </row>
     <row r="11">
@@ -635,14 +699,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 0, 2: 1, 3: 1, 4: 0, 5: 1, 6: 1, 7: 1, 8: 1, 9: 0, 10: 1, 11: 1, 12: 0, 13: 0, 14: 1, 15: 1, 16: 1, 17: 0, 18: 0, 19: 0, 20: 0, 21: 0, 22: 0, 23: 0}</t>
+          <t>{0: 0, 1: 0, 2: 1, 3: 1, 4: 1, 5: 1, 6: 0, 7: 1, 8: 0, 9: 0, 10: 0, 11: 1, 12: 0, 13: 1, 14: 1, 15: 0, 16: 0, 17: 1, 18: 1, 19: 1, 20: 0, 21: 0, 22: 0, 23: 0}</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54769</v>
+        <v>36596</v>
       </c>
       <c r="E11" t="n">
-        <v>2992297</v>
+        <v>3000357</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-90000</v>
       </c>
     </row>
     <row r="12">
@@ -654,14 +724,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{0: 1, 1: 1, 2: 1, 3: 1, 4: 1, 5: 0, 6: 1, 7: 1, 8: 0, 9: 0, 10: 0, 11: 1, 12: 1, 13: 1, 14: 0, 15: 0, 16: 1, 17: 0, 18: 0, 19: 0, 20: 1, 21: 0, 22: 0, 23: 0, 24: 0}</t>
+          <t>{0: 0, 1: 0, 2: 0, 3: 1, 4: 0, 5: 1, 6: 1, 7: 0, 8: 1, 9: 0, 10: 1, 11: 1, 12: 1, 13: 1, 14: 0, 15: 0, 16: 0, 17: 1, 18: 0, 19: 0, 20: 0, 21: 0, 22: 0, 23: 1, 24: 0}</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>109908</v>
+        <v>128303</v>
       </c>
       <c r="E12" t="n">
-        <v>2981241</v>
+        <v>2991539</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-110889</v>
       </c>
     </row>
     <row r="13">
@@ -673,14 +749,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 0, 2: 1, 3: 0, 4: 1, 5: 1, 6: 1, 7: 1, 8: 1, 9: 0, 10: 0, 11: 1, 12: 1, 13: 0}</t>
+          <t>{0: 0, 1: 1, 2: 0, 3: 1, 4: 0, 5: 1, 6: 0, 7: 0, 8: 1, 9: 1, 10: 1, 11: 0, 12: 1, 13: 0}</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67316</v>
+        <v>33693</v>
       </c>
       <c r="E13" t="n">
-        <v>2990026</v>
+        <v>2984649</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-15129</v>
       </c>
     </row>
     <row r="14">
@@ -692,14 +774,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{0: 1, 1: 0, 2: 1, 3: 1, 4: 0, 5: 0, 6: 0, 7: 0, 8: 1, 9: 0, 10: 0, 11: 0, 12: 0, 13: 0, 14: 1, 15: 0, 16: 0, 17: 0, 18: 1, 19: 0, 20: 1, 21: 1, 22: 1, 23: 0, 24: 1, 25: 0}</t>
+          <t>{0: 1, 1: 1, 2: 0, 3: 0, 4: 0, 5: 0, 6: 1, 7: 1, 8: 1, 9: 0, 10: 1, 11: 0, 12: 1, 13: 0, 14: 0, 15: 1, 16: 0, 17: 0, 18: 0, 19: 1, 20: 1, 21: 1, 22: 1, 23: 0, 24: 1, 25: 0}</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>92680</v>
+        <v>55545</v>
       </c>
       <c r="E14" t="n">
-        <v>2994802</v>
+        <v>2983068</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-103041</v>
       </c>
     </row>
     <row r="15">
@@ -711,14 +799,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 1, 2: 0, 3: 1, 4: 1, 5: 0, 6: 0, 7: 0, 8: 0, 9: 1, 10: 1, 11: 1, 12: 0, 13: 1, 14: 1, 15: 1, 16: 0}</t>
+          <t>{0: 0, 1: 1, 2: 1, 3: 0, 4: 1, 5: 0, 6: 1, 7: 0, 8: 0, 9: 0, 10: 0, 11: 0, 12: 1, 13: 1, 14: 1, 15: 0, 16: 0}</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>137739</v>
+        <v>86116</v>
       </c>
       <c r="E15" t="n">
-        <v>2992057</v>
+        <v>2994073</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-44100</v>
       </c>
     </row>
     <row r="16">
@@ -734,10 +828,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>110144</v>
+        <v>109863</v>
       </c>
       <c r="E16" t="n">
-        <v>2987485</v>
+        <v>2995322</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-3481</v>
       </c>
     </row>
   </sheetData>

--- a/numPartitionBQM.xlsx
+++ b/numPartitionBQM.xlsx
@@ -100,7 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -114,6 +114,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -136,29 +143,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -490,7 +490,7 @@
     <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>-6889</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -557,7 +557,7 @@
         <v>-22500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -580,7 +580,7 @@
         <v>-40000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -603,7 +603,7 @@
         <v>-40000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -626,7 +626,7 @@
         <v>-62500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -649,7 +649,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -672,7 +672,7 @@
         <v>-1225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -695,7 +695,7 @@
         <v>-4624</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -718,7 +718,7 @@
         <v>-21316</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -741,7 +741,7 @@
         <v>-90000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -764,7 +764,7 @@
         <v>-110889</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -787,7 +787,7 @@
         <v>-15129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -810,7 +810,7 @@
         <v>-103041</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -833,7 +833,7 @@
         <v>-44100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
       <c r="A16" s="2">
         <v>14</v>
       </c>
